--- a/Tool/DataTables/Datas/reward.xlsx
+++ b/Tool/DataTables/Datas/reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\workspace\FlatBuffers\luban\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\workspace\TOS\TOS-Project\Tool\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68488688-BAF2-498E-9F3C-FA1B2278D2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E0D7B-57BF-4306-8405-F9536A36A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="1490" windowWidth="19200" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="3740" windowWidth="19200" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -445,61 +445,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -507,10 +507,10 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -521,10 +521,10 @@
         <v>1002</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
       </c>
       <c r="E6">
         <v>1000</v>
